--- a/Code/Results/Cases/Case_2_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_191/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.97395541455046</v>
+        <v>18.60700139133239</v>
       </c>
       <c r="C2">
-        <v>18.33967958155278</v>
+        <v>11.49738024166299</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.208822437648099</v>
+        <v>13.66333712621891</v>
       </c>
       <c r="F2">
-        <v>63.38987510453411</v>
+        <v>53.7468604590909</v>
       </c>
       <c r="G2">
-        <v>2.057320941128451</v>
+        <v>3.679250259252292</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.820424445649218</v>
+        <v>10.44193988442619</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.09418211558547</v>
+        <v>18.14624720533144</v>
       </c>
       <c r="C3">
-        <v>16.9403159753698</v>
+        <v>11.04973446999831</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.572305595639897</v>
+        <v>13.83359769724555</v>
       </c>
       <c r="F3">
-        <v>59.45870792624493</v>
+        <v>52.7664983415047</v>
       </c>
       <c r="G3">
-        <v>2.074091296127931</v>
+        <v>3.684448315380768</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.385694416137904</v>
+        <v>10.35803330355948</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.89430069563264</v>
+        <v>17.86583301994208</v>
       </c>
       <c r="C4">
-        <v>16.04768849635312</v>
+        <v>10.77139057126274</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.180274091792668</v>
+        <v>13.94435589693841</v>
       </c>
       <c r="F4">
-        <v>57.00682625457407</v>
+        <v>52.16772199765322</v>
       </c>
       <c r="G4">
-        <v>2.084475057267952</v>
+        <v>3.687796688292354</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.120628398135198</v>
+        <v>10.30738995199563</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.393410558726</v>
+        <v>17.75239521595361</v>
       </c>
       <c r="C5">
-        <v>15.67512681235892</v>
+        <v>10.65731521418825</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.019782308970087</v>
+        <v>13.99105022003824</v>
       </c>
       <c r="F5">
-        <v>55.99777465509722</v>
+        <v>51.92477485914958</v>
       </c>
       <c r="G5">
-        <v>2.088736979148002</v>
+        <v>3.689200785836463</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.013000316544288</v>
+        <v>10.28697899017118</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.30950632035887</v>
+        <v>17.7336154065259</v>
       </c>
       <c r="C6">
-        <v>15.61272036066033</v>
+        <v>10.63834104557387</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.9930768391768</v>
+        <v>13.9988978577533</v>
       </c>
       <c r="F6">
-        <v>55.82962278183725</v>
+        <v>51.88450528251916</v>
       </c>
       <c r="G6">
-        <v>2.089446739728579</v>
+        <v>3.68943633307159</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.995150507489546</v>
+        <v>10.28360362915462</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.88759433885598</v>
+        <v>17.86429950774309</v>
       </c>
       <c r="C7">
-        <v>16.04270016304109</v>
+        <v>10.7698544169506</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.178113149747589</v>
+        <v>13.94497932353902</v>
       </c>
       <c r="F7">
-        <v>56.99325802712713</v>
+        <v>52.16444089356481</v>
       </c>
       <c r="G7">
-        <v>2.084532401085513</v>
+        <v>3.687815463812741</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.119175396690778</v>
+        <v>10.30711375700108</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.33500359685095</v>
+        <v>18.44773910079916</v>
       </c>
       <c r="C8">
-        <v>17.86385029533221</v>
+        <v>11.34388684260852</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.989321612912757</v>
+        <v>13.7207499693326</v>
       </c>
       <c r="F8">
-        <v>62.04203069475624</v>
+        <v>53.40833075912536</v>
       </c>
       <c r="G8">
-        <v>2.063090946248502</v>
+        <v>3.681010133433518</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.670084938977745</v>
+        <v>10.4128311775965</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.79636476834888</v>
+        <v>19.60281406321936</v>
       </c>
       <c r="C9">
-        <v>21.19193213740544</v>
+        <v>12.43288811486344</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.594000614205636</v>
+        <v>13.33057399403441</v>
       </c>
       <c r="F9">
-        <v>71.67404135382326</v>
+        <v>55.86131012564098</v>
       </c>
       <c r="G9">
-        <v>2.021269380836168</v>
+        <v>3.668899750425004</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.77090628414429</v>
+        <v>10.62678689850011</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.91121770754892</v>
+        <v>20.44688421158001</v>
       </c>
       <c r="C10">
-        <v>23.52651545010079</v>
+        <v>13.20004678579336</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.822440300206063</v>
+        <v>13.07443290610461</v>
       </c>
       <c r="F10">
-        <v>78.66879836255552</v>
+        <v>57.65684494266746</v>
       </c>
       <c r="G10">
-        <v>1.989886873787535</v>
+        <v>3.660742606553483</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.60438417321975</v>
+        <v>10.78759809336837</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.30584408196772</v>
+        <v>20.82770449591857</v>
       </c>
       <c r="C11">
-        <v>24.57576282740027</v>
+        <v>13.54006938768322</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.404498211450553</v>
+        <v>12.96462042816577</v>
       </c>
       <c r="F11">
-        <v>81.87919436897059</v>
+        <v>58.46917615346469</v>
       </c>
       <c r="G11">
-        <v>1.975232249046697</v>
+        <v>3.657189784988994</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.99323330515788</v>
+        <v>10.86144039273818</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.83217631475371</v>
+        <v>20.97129256185237</v>
       </c>
       <c r="C12">
-        <v>24.97248570390104</v>
+        <v>13.667411557324</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.629655234035518</v>
+        <v>12.9240103998952</v>
       </c>
       <c r="F12">
-        <v>83.13543429551056</v>
+        <v>58.77589920451217</v>
       </c>
       <c r="G12">
-        <v>1.969602470496499</v>
+        <v>3.655866919617391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.14239522372631</v>
+        <v>10.88949239433764</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.71887365619598</v>
+        <v>20.94039841890515</v>
       </c>
       <c r="C13">
-        <v>24.88704805061709</v>
+        <v>13.64005102627863</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.580925977939755</v>
+        <v>12.93271304126222</v>
       </c>
       <c r="F13">
-        <v>82.86463700473254</v>
+        <v>58.70988426409642</v>
       </c>
       <c r="G13">
-        <v>1.970819007361815</v>
+        <v>3.656150824277191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.11017534673835</v>
+        <v>10.8834470658275</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.34917193619774</v>
+        <v>20.83953091722431</v>
       </c>
       <c r="C14">
-        <v>24.60840534758297</v>
+        <v>13.55057497775</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.422917477140064</v>
+        <v>12.96125984945754</v>
       </c>
       <c r="F14">
-        <v>81.98244328099503</v>
+        <v>58.49442963766482</v>
       </c>
       <c r="G14">
-        <v>1.974770868127115</v>
+        <v>3.657080502026606</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.00546302642143</v>
+        <v>10.86374650873709</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.12253563211375</v>
+        <v>20.77766113068603</v>
       </c>
       <c r="C15">
-        <v>24.43769200652232</v>
+        <v>13.49558026276937</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.326798893995749</v>
+        <v>12.97887266737515</v>
       </c>
       <c r="F15">
-        <v>81.44270545971784</v>
+        <v>58.36233452759233</v>
       </c>
       <c r="G15">
-        <v>1.977180141558917</v>
+        <v>3.657652882280735</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.94159111600246</v>
+        <v>10.85169072194244</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.81974017631209</v>
+        <v>20.4219187228815</v>
       </c>
       <c r="C16">
-        <v>23.45778601594576</v>
+        <v>13.17763381017553</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.784980424902642</v>
+        <v>13.08174513185587</v>
       </c>
       <c r="F16">
-        <v>78.46056736440839</v>
+        <v>57.60364595646102</v>
       </c>
       <c r="G16">
-        <v>1.990834899562105</v>
+        <v>3.660977952551197</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.57920778897768</v>
+        <v>10.78278537533358</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.01570472625429</v>
+        <v>20.20275225031196</v>
       </c>
       <c r="C17">
-        <v>22.85415805105188</v>
+        <v>12.98019178171931</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.459428178920698</v>
+        <v>13.14657812039167</v>
       </c>
       <c r="F17">
-        <v>76.63743693545804</v>
+        <v>57.1368920236755</v>
       </c>
       <c r="G17">
-        <v>1.999098199626495</v>
+        <v>3.663058079733348</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.35970117702117</v>
+        <v>10.74068385673364</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.5510388392688</v>
+        <v>20.0764060799808</v>
       </c>
       <c r="C18">
-        <v>22.50567640912961</v>
+        <v>12.86579134489895</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.274263482304121</v>
+        <v>13.18449907181098</v>
       </c>
       <c r="F18">
-        <v>75.5897299257586</v>
+        <v>56.86802120745475</v>
       </c>
       <c r="G18">
-        <v>2.003817278174761</v>
+        <v>3.66426938828653</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.23432020951318</v>
+        <v>10.71653356595687</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.3932942030223</v>
+        <v>20.03358337099008</v>
       </c>
       <c r="C19">
-        <v>22.38743218722164</v>
+        <v>12.82691776230678</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.211891050001553</v>
+        <v>13.19744652263729</v>
       </c>
       <c r="F19">
-        <v>75.2350572055351</v>
+        <v>56.77692408639076</v>
       </c>
       <c r="G19">
-        <v>2.005409967811017</v>
+        <v>3.664682077179378</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.19200510978827</v>
+        <v>10.70836820755269</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.10151476738296</v>
+        <v>20.22611389194808</v>
       </c>
       <c r="C20">
-        <v>22.9185409345768</v>
+        <v>13.0012974339631</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.493859076087155</v>
+        <v>13.13961119729944</v>
       </c>
       <c r="F20">
-        <v>76.83139531986585</v>
+        <v>57.18662265022112</v>
       </c>
       <c r="G20">
-        <v>1.998222217855019</v>
+        <v>3.662835108611189</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.3829743847634</v>
+        <v>10.74515893554397</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.45779739278301</v>
+        <v>20.86917625237739</v>
       </c>
       <c r="C21">
-        <v>24.69025442274086</v>
+        <v>13.57689565715673</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.469186484976145</v>
+        <v>12.95284846028731</v>
       </c>
       <c r="F21">
-        <v>82.2414249068655</v>
+        <v>58.55773992739669</v>
       </c>
       <c r="G21">
-        <v>1.973612533668359</v>
+        <v>3.656806823753431</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.03616267179283</v>
+        <v>10.86953068699895</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.98833854367126</v>
+        <v>21.285770410145</v>
       </c>
       <c r="C22">
-        <v>25.84548091172248</v>
+        <v>13.9447752113447</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.13524106779066</v>
+        <v>12.83646786577052</v>
       </c>
       <c r="F22">
-        <v>85.91016494129403</v>
+        <v>59.44855528747073</v>
       </c>
       <c r="G22">
-        <v>1.957042592929158</v>
+        <v>3.652998111434929</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.47458534844171</v>
+        <v>10.95133207897798</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.17174426113483</v>
+        <v>21.06381534268773</v>
       </c>
       <c r="C23">
-        <v>25.22866255285147</v>
+        <v>13.74922910969984</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.776561305617303</v>
+        <v>12.89805943890762</v>
       </c>
       <c r="F23">
-        <v>83.94821913581701</v>
+        <v>58.97367293316385</v>
       </c>
       <c r="G23">
-        <v>1.965941258529962</v>
+        <v>3.655018960132893</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.23931758759436</v>
+        <v>10.90762900004449</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.06272767320505</v>
+        <v>20.21555315381589</v>
       </c>
       <c r="C24">
-        <v>22.88943803115026</v>
+        <v>12.9917583257837</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.478286739410803</v>
+        <v>13.14275892676656</v>
       </c>
       <c r="F24">
-        <v>76.74370563800673</v>
+        <v>57.16414105897228</v>
       </c>
       <c r="G24">
-        <v>1.998618345786332</v>
+        <v>3.662935865823955</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.37245006172119</v>
+        <v>10.74313558215084</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62172820059889</v>
+        <v>19.2903603793392</v>
       </c>
       <c r="C25">
-        <v>20.31419201800122</v>
+        <v>12.14338245331098</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.154697207624617</v>
+        <v>13.43079322888321</v>
       </c>
       <c r="F25">
-        <v>69.09057867979438</v>
+        <v>55.19781955429924</v>
       </c>
       <c r="G25">
-        <v>2.032631601779603</v>
+        <v>3.672045014788252</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.46990041222918</v>
+        <v>10.56823775568418</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_191/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.60700139133239</v>
+        <v>24.97395541455052</v>
       </c>
       <c r="C2">
-        <v>11.49738024166299</v>
+        <v>18.3396795815527</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.66333712621891</v>
+        <v>6.208822437647979</v>
       </c>
       <c r="F2">
-        <v>53.7468604590909</v>
+        <v>63.38987510453396</v>
       </c>
       <c r="G2">
-        <v>3.679250259252292</v>
+        <v>2.057320941128321</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.44193988442619</v>
+        <v>9.820424445649174</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.14624720533144</v>
+        <v>23.09418211558567</v>
       </c>
       <c r="C3">
-        <v>11.04973446999831</v>
+        <v>16.9403159753699</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.83359769724555</v>
+        <v>5.57230559563974</v>
       </c>
       <c r="F3">
-        <v>52.7664983415047</v>
+        <v>59.45870792624498</v>
       </c>
       <c r="G3">
-        <v>3.684448315380768</v>
+        <v>2.074091296128058</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.35803330355948</v>
+        <v>9.385694416137866</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.86583301994208</v>
+        <v>21.89430069563261</v>
       </c>
       <c r="C4">
-        <v>10.77139057126274</v>
+        <v>16.04768849635326</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.94435589693841</v>
+        <v>5.1802740917927</v>
       </c>
       <c r="F4">
-        <v>52.16772199765322</v>
+        <v>57.00682625457415</v>
       </c>
       <c r="G4">
-        <v>3.687796688292354</v>
+        <v>2.084475057267813</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.30738995199563</v>
+        <v>9.120628398135189</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.75239521595361</v>
+        <v>21.39341055872583</v>
       </c>
       <c r="C5">
-        <v>10.65731521418825</v>
+        <v>15.67512681235917</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.99105022003824</v>
+        <v>5.019782308969932</v>
       </c>
       <c r="F5">
-        <v>51.92477485914958</v>
+        <v>55.99777465509684</v>
       </c>
       <c r="G5">
-        <v>3.689200785836463</v>
+        <v>2.088736979148246</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.28697899017118</v>
+        <v>9.013000316544204</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.7336154065259</v>
+        <v>21.30950632035881</v>
       </c>
       <c r="C6">
-        <v>10.63834104557387</v>
+        <v>15.61272036066037</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.9988978577533</v>
+        <v>4.993076839176526</v>
       </c>
       <c r="F6">
-        <v>51.88450528251916</v>
+        <v>55.82962278183712</v>
       </c>
       <c r="G6">
-        <v>3.68943633307159</v>
+        <v>2.089446739728568</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.28360362915462</v>
+        <v>8.995150507489523</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.86429950774309</v>
+        <v>21.88759433885603</v>
       </c>
       <c r="C7">
-        <v>10.7698544169506</v>
+        <v>16.04270016304097</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.94497932353902</v>
+        <v>5.178113149747531</v>
       </c>
       <c r="F7">
-        <v>52.16444089356481</v>
+        <v>56.9932580271268</v>
       </c>
       <c r="G7">
-        <v>3.687815463812741</v>
+        <v>2.084532401085248</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.30711375700108</v>
+        <v>9.119175396690697</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.44773910079916</v>
+        <v>24.33500359685081</v>
       </c>
       <c r="C8">
-        <v>11.34388684260852</v>
+        <v>17.86385029533226</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.7207499693326</v>
+        <v>5.989321612912367</v>
       </c>
       <c r="F8">
-        <v>53.40833075912536</v>
+        <v>62.04203069475587</v>
       </c>
       <c r="G8">
-        <v>3.681010133433518</v>
+        <v>2.063090946248486</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.4128311775965</v>
+        <v>9.670084938977691</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.60281406321936</v>
+        <v>28.79636476834881</v>
       </c>
       <c r="C9">
-        <v>12.43288811486344</v>
+        <v>21.19193213740535</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.33057399403441</v>
+        <v>7.594000614205444</v>
       </c>
       <c r="F9">
-        <v>55.86131012564098</v>
+        <v>71.67404135382293</v>
       </c>
       <c r="G9">
-        <v>3.668899750425004</v>
+        <v>2.021269380836063</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.62678689850011</v>
+        <v>10.77090628414425</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.44688421158001</v>
+        <v>31.9112177075489</v>
       </c>
       <c r="C10">
-        <v>13.20004678579336</v>
+        <v>23.52651545010061</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.07443290610461</v>
+        <v>8.822440300206322</v>
       </c>
       <c r="F10">
-        <v>57.65684494266746</v>
+        <v>78.66879836255562</v>
       </c>
       <c r="G10">
-        <v>3.660742606553483</v>
+        <v>1.989886873787652</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.78759809336837</v>
+        <v>11.60438417321976</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.82770449591857</v>
+        <v>33.30584408196767</v>
       </c>
       <c r="C11">
-        <v>13.54006938768322</v>
+        <v>24.57576282740014</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.96462042816577</v>
+        <v>9.404498211450434</v>
       </c>
       <c r="F11">
-        <v>58.46917615346469</v>
+        <v>81.8791943689704</v>
       </c>
       <c r="G11">
-        <v>3.657189784988994</v>
+        <v>1.975232249046559</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.86144039273818</v>
+        <v>11.99323330515787</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.97129256185237</v>
+        <v>33.83217631475377</v>
       </c>
       <c r="C12">
-        <v>13.667411557324</v>
+        <v>24.97248570390105</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.9240103998952</v>
+        <v>9.629655234035999</v>
       </c>
       <c r="F12">
-        <v>58.77589920451217</v>
+        <v>83.13543429551126</v>
       </c>
       <c r="G12">
-        <v>3.655866919617391</v>
+        <v>1.969602470496344</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.88949239433764</v>
+        <v>12.14239522372643</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.94039841890515</v>
+        <v>33.71887365619608</v>
       </c>
       <c r="C13">
-        <v>13.64005102627863</v>
+        <v>24.88704805061728</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.93271304126222</v>
+        <v>9.58092597794011</v>
       </c>
       <c r="F13">
-        <v>58.70988426409642</v>
+        <v>82.86463700473314</v>
       </c>
       <c r="G13">
-        <v>3.656150824277191</v>
+        <v>1.970819007361936</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.8834470658275</v>
+        <v>12.11017534673846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.83953091722431</v>
+        <v>33.34917193619785</v>
       </c>
       <c r="C14">
-        <v>13.55057497775</v>
+        <v>24.6084053475831</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.96125984945754</v>
+        <v>9.422917477140524</v>
       </c>
       <c r="F14">
-        <v>58.49442963766482</v>
+        <v>81.98244328099578</v>
       </c>
       <c r="G14">
-        <v>3.657080502026606</v>
+        <v>1.974770868127241</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.86374650873709</v>
+        <v>12.00546302642156</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.77766113068603</v>
+        <v>33.12253563211379</v>
       </c>
       <c r="C15">
-        <v>13.49558026276937</v>
+        <v>24.43769200652217</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.97887266737515</v>
+        <v>9.326798893995921</v>
       </c>
       <c r="F15">
-        <v>58.36233452759233</v>
+        <v>81.44270545971807</v>
       </c>
       <c r="G15">
-        <v>3.657652882280735</v>
+        <v>1.977180141559033</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.85169072194244</v>
+        <v>11.94159111600252</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.4219187228815</v>
+        <v>31.81974017631221</v>
       </c>
       <c r="C16">
-        <v>13.17763381017553</v>
+        <v>23.45778601594569</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.08174513185587</v>
+        <v>8.784980424902725</v>
       </c>
       <c r="F16">
-        <v>57.60364595646102</v>
+        <v>78.46056736440845</v>
       </c>
       <c r="G16">
-        <v>3.660977952551197</v>
+        <v>1.990834899562371</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.78278537533358</v>
+        <v>11.57920778897769</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.20275225031196</v>
+        <v>31.01570472625438</v>
       </c>
       <c r="C17">
-        <v>12.98019178171931</v>
+        <v>22.85415805105213</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.14657812039167</v>
+        <v>8.459428178920403</v>
       </c>
       <c r="F17">
-        <v>57.1368920236755</v>
+        <v>76.6374369354579</v>
       </c>
       <c r="G17">
-        <v>3.663058079733348</v>
+        <v>1.999098199626373</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.74068385673364</v>
+        <v>11.35970117702115</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.0764060799808</v>
+        <v>30.55103883926889</v>
       </c>
       <c r="C18">
-        <v>12.86579134489895</v>
+        <v>22.5056764091297</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.18449907181098</v>
+        <v>8.27426348230467</v>
       </c>
       <c r="F18">
-        <v>56.86802120745475</v>
+        <v>75.58972992575943</v>
       </c>
       <c r="G18">
-        <v>3.66426938828653</v>
+        <v>2.003817278174525</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.71653356595687</v>
+        <v>11.23432020951331</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.03358337099008</v>
+        <v>30.39329420302247</v>
       </c>
       <c r="C19">
-        <v>12.82691776230678</v>
+        <v>22.38743218722161</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.19744652263729</v>
+        <v>8.211891050001611</v>
       </c>
       <c r="F19">
-        <v>56.77692408639076</v>
+        <v>75.23505720553536</v>
       </c>
       <c r="G19">
-        <v>3.664682077179378</v>
+        <v>2.005409967811002</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.70836820755269</v>
+        <v>11.19200510978829</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.22611389194808</v>
+        <v>31.10151476738297</v>
       </c>
       <c r="C20">
-        <v>13.0012974339631</v>
+        <v>22.91854093457694</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.13961119729944</v>
+        <v>8.493859076087478</v>
       </c>
       <c r="F20">
-        <v>57.18662265022112</v>
+        <v>76.83139531986622</v>
       </c>
       <c r="G20">
-        <v>3.662835108611189</v>
+        <v>1.998222217855035</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.74515893554397</v>
+        <v>11.38297438476348</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.86917625237739</v>
+        <v>33.45779739278296</v>
       </c>
       <c r="C21">
-        <v>13.57689565715673</v>
+        <v>24.69025442274075</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.95284846028731</v>
+        <v>9.469186484975964</v>
       </c>
       <c r="F21">
-        <v>58.55773992739669</v>
+        <v>82.24142490686536</v>
       </c>
       <c r="G21">
-        <v>3.656806823753431</v>
+        <v>1.97361253366832</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.86953068699895</v>
+        <v>12.03616267179281</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.285770410145</v>
+        <v>34.98833854367116</v>
       </c>
       <c r="C22">
-        <v>13.9447752113447</v>
+        <v>25.84548091172238</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.83646786577052</v>
+        <v>10.13524106779058</v>
       </c>
       <c r="F22">
-        <v>59.44855528747073</v>
+        <v>85.91016494129391</v>
       </c>
       <c r="G22">
-        <v>3.652998111434929</v>
+        <v>1.957042592929307</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.95133207897798</v>
+        <v>12.4745853484417</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.06381534268773</v>
+        <v>34.17174426113485</v>
       </c>
       <c r="C23">
-        <v>13.74922910969984</v>
+        <v>25.22866255285137</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.89805943890762</v>
+        <v>9.776561305617449</v>
       </c>
       <c r="F23">
-        <v>58.97367293316385</v>
+        <v>83.9482191358174</v>
       </c>
       <c r="G23">
-        <v>3.655018960132893</v>
+        <v>1.965941258529692</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.90762900004449</v>
+        <v>12.23931758759443</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.21555315381589</v>
+        <v>31.0627276732052</v>
       </c>
       <c r="C24">
-        <v>12.9917583257837</v>
+        <v>22.88943803115022</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.14275892676656</v>
+        <v>8.478286739410764</v>
       </c>
       <c r="F24">
-        <v>57.16414105897228</v>
+        <v>76.74370563800701</v>
       </c>
       <c r="G24">
-        <v>3.662935865823955</v>
+        <v>1.998618345786464</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.74313558215084</v>
+        <v>11.37245006172122</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.2903603793392</v>
+        <v>27.62172820059893</v>
       </c>
       <c r="C25">
-        <v>12.14338245331098</v>
+        <v>20.31419201800106</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.43079322888321</v>
+        <v>7.15469720762435</v>
       </c>
       <c r="F25">
-        <v>55.19781955429924</v>
+        <v>69.09057867979392</v>
       </c>
       <c r="G25">
-        <v>3.672045014788252</v>
+        <v>2.032631601779349</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.56823775568418</v>
+        <v>10.46990041222905</v>
       </c>
       <c r="K25">
         <v>0</v>
